--- a/server/API명세서.xlsx
+++ b/server/API명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konkukackr-my.sharepoint.com/personal/rudwhd515_konkuk_ac_kr/Documents/Desktop/KONKUK/UMC/cloneCoding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konkukackr-my.sharepoint.com/personal/rudwhd515_konkuk_ac_kr/Documents/Desktop/KONKUK/UMC/해커톤/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{7CF21D3E-6459-4718-B7E1-37E480F873B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7200E71B-6394-41D3-B36B-41330B231F29}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{7CF21D3E-6459-4718-B7E1-37E480F873B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{215F2B65-C002-4E43-931E-2B0076BB3AB1}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="348" windowWidth="23040" windowHeight="16332" xr2:uid="{C5E28EE9-F232-4F07-B7EC-FEDC5B48EEB4}"/>
+    <workbookView xWindow="10860" yWindow="1584" windowWidth="23040" windowHeight="16332" xr2:uid="{C5E28EE9-F232-4F07-B7EC-FEDC5B48EEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Sheet" sheetId="1" r:id="rId1"/>
@@ -2038,9 +2038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>/post/:postIdx</t>
   </si>
   <si>
@@ -3619,6 +3616,9 @@
   <si>
     <t>delete from post where postIdx = ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodations</t>
   </si>
 </sst>
 </file>
@@ -4191,12 +4191,12 @@
   <dimension ref="A3:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
     <col min="4" max="4" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="B11" s="1">
         <v>2.1</v>
@@ -4349,7 +4349,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
@@ -4363,7 +4363,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
@@ -4377,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>116</v>
@@ -4391,7 +4391,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>20</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="1">
         <v>3.1</v>
@@ -4411,7 +4411,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>143</v>
@@ -4425,7 +4425,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
@@ -4439,7 +4439,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
@@ -4453,7 +4453,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -4467,7 +4467,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>140</v>
@@ -4481,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>28</v>
@@ -4495,7 +4495,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>142</v>
@@ -4509,7 +4509,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>141</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>134</v>
@@ -4526,7 +4526,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>24</v>
@@ -4540,7 +4540,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
@@ -4554,7 +4554,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>26</v>
@@ -4571,7 +4571,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>118</v>
@@ -4585,7 +4585,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>119</v>
@@ -4599,7 +4599,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>120</v>
@@ -5067,7 +5067,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>30</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -5268,13 +5268,13 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
@@ -5296,20 +5296,20 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
@@ -5557,7 +5557,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>101</v>
@@ -5566,11 +5566,11 @@
         <v>41</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5814,7 +5814,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -5823,7 +5823,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
@@ -6610,7 +6610,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>30</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -7090,7 +7090,7 @@
     <row r="23" spans="1:19">
       <c r="A23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>101</v>
@@ -7099,11 +7099,11 @@
         <v>41</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -7290,7 +7290,7 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -7299,7 +7299,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
@@ -8086,7 +8086,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>30</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8566,7 +8566,7 @@
     <row r="23" spans="1:19">
       <c r="A23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>101</v>
@@ -8575,11 +8575,11 @@
         <v>41</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -8772,7 +8772,7 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -8781,7 +8781,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
@@ -11641,7 +11641,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="21" t="s">
@@ -11669,7 +11669,7 @@
         <v>41</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="20" t="s">
@@ -11697,7 +11697,7 @@
         <v>41</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="21" t="s">
@@ -11725,7 +11725,7 @@
         <v>41</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="20" t="s">
@@ -11753,7 +11753,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="20" t="s">
@@ -12734,7 +12734,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>30</v>
@@ -12941,10 +12941,10 @@
         <v>101</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="20" t="s">
@@ -12963,16 +12963,16 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="20" t="s">
@@ -12991,20 +12991,20 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -13019,16 +13019,16 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="20" t="s">
@@ -13047,20 +13047,20 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="13">
         <v>12</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -13309,19 +13309,19 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>101</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F26" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>226</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>227</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -13336,19 +13336,19 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F27" s="10">
         <v>22</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -13540,7 +13540,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
@@ -13549,7 +13549,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
@@ -14240,7 +14240,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>30</v>
@@ -14758,7 +14758,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="20" t="s">
@@ -14786,7 +14786,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="20" t="s">
@@ -14814,7 +14814,7 @@
         <v>41</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="21" t="s">
@@ -15010,7 +15010,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
@@ -15019,7 +15019,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
@@ -15710,7 +15710,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>30</v>
@@ -15925,10 +15925,10 @@
         <v>101</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="20" t="s">
@@ -15942,16 +15942,16 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="20" t="s">
@@ -15970,20 +15970,20 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
@@ -15998,16 +15998,16 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="20" t="s">
@@ -16026,20 +16026,20 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="13">
         <v>12</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
@@ -16282,7 +16282,7 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>101</v>
@@ -16291,11 +16291,11 @@
         <v>41</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -16487,7 +16487,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
@@ -17208,7 +17208,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -17671,7 +17671,7 @@
         <v>74</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>41</v>
@@ -17755,7 +17755,7 @@
         <v>41</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="20" t="s">
@@ -17783,7 +17783,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="21" t="s">
@@ -17839,7 +17839,7 @@
         <v>41</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="21" t="s">
@@ -17867,7 +17867,7 @@
         <v>41</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="20" t="s">
@@ -17895,7 +17895,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="21" t="s">
@@ -17923,7 +17923,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="20" t="s">
@@ -17951,7 +17951,7 @@
         <v>41</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="20" t="s">
@@ -18091,7 +18091,7 @@
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -18115,11 +18115,11 @@
         <v>41</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -18312,7 +18312,7 @@
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
@@ -19573,7 +19573,7 @@
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -19623,11 +19623,11 @@
         <v>41</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -19650,7 +19650,7 @@
         <v>41</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="24" t="s">
@@ -19677,11 +19677,11 @@
         <v>41</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -19708,7 +19708,7 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -19735,7 +19735,7 @@
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -19758,11 +19758,11 @@
         <v>41</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -19785,11 +19785,11 @@
         <v>41</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -19862,11 +19862,11 @@
         <v>41</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -20855,7 +20855,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>30</v>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -21090,14 +21090,14 @@
         <v>101</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
@@ -21112,18 +21112,18 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
@@ -21144,14 +21144,14 @@
         <v>101</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
@@ -21406,7 +21406,7 @@
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -21599,7 +21599,7 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -21608,7 +21608,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
